--- a/Training exercise/SW4e_results.xlsx
+++ b/Training exercise/SW4e_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Tools\MATLAB\Archive\ASMITA Matlab\asmita_OO\Training exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Tools\MATLAB\MUImodels2\muiApps\Asmita\Training exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6613C356-550A-4E78-8013-4B4B6AF641A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2245A46-8386-471A-BE55-59633D82D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="1148" windowWidth="15690" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
-    <t>1a – sea level rise of 2mm/year</t>
-  </si>
-  <si>
-    <t>1b – As 1a with ntc of 0.15m</t>
-  </si>
-  <si>
-    <t>2 – historic changes + slr</t>
-  </si>
-  <si>
-    <t>3 – As 2 with dredge in 2000*</t>
-  </si>
-  <si>
-    <t>4 – As 3 with reclamation in 2020*</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -82,6 +67,21 @@
   </si>
   <si>
     <t>SW4e model - Case (incl maintenance)</t>
+  </si>
+  <si>
+    <t>1 – sea level rise of 2mm/year</t>
+  </si>
+  <si>
+    <t>2 – As 1, with ntc of 0.15m</t>
+  </si>
+  <si>
+    <t>3 – historic changes + slr</t>
+  </si>
+  <si>
+    <t>4 – As 3, with dredge in 2000*</t>
+  </si>
+  <si>
+    <t>5 – As 4, with reclamation in 2020*</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -507,7 +507,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>10000</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -584,7 +584,7 @@
         <v>-500000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7">
         <v>-200000</v>
@@ -592,18 +592,18 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2">
         <v>2000</v>
@@ -612,7 +612,7 @@
         <v>2050</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>2000</v>
@@ -621,17 +621,17 @@
         <v>2050</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
         <v>64600000</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>70700000</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
         <v>74110000</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
         <v>74110000</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
         <v>74110000</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -788,7 +788,7 @@
     </row>
     <row r="18" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -797,7 +797,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4">
         <v>64600000</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4">
         <v>70700000</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4">
         <v>91700000</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4">
         <v>91700000</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4">
         <v>91700000</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
